--- a/biology/Écologie/Restinga/Restinga.xlsx
+++ b/biology/Écologie/Restinga/Restinga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une restinga est un cordon littoral sablonneux et salé, qui séquestre une portion de la mer entre elle et le continent, et est couvert de plantes herbacées caractéristiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une restinga est un cordon littoral sablonneux et salé, qui séquestre une portion de la mer entre elle et le continent, et est couvert de plantes herbacées caractéristiques.
 Ce biome est présent à l'Est du Brésil, notamment dans le parc d'État de Restinga de Bertioga situé dans l'État de Sao Paulo, ainsi que dans Parc national de Restinga de Jurubatiba dans l'État de Rio de Janeiro.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Écorégions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le WWF distingue deux types de restingas en tant qu'écorégions : 
 Les restingas de la côte atlantique : présentes dans plusieurs enclaves le long de la côte est du Brésil, depuis l'État du Rio Grande do Norte dans le nord-est du Brésil jusqu'à l'État du Rio Grande do Sul dans le sud du Brésil, elles couvrent une superficie de 7 900 kilomètres carrés qui s'étend des tropiques aux subtropiques. Leurs flores et leurs faunes partagent des affinités avec la forêt atlantique humide de l'Est du Brésil.
